--- a/listepreinscription.xlsx
+++ b/listepreinscription.xlsx
@@ -397,316 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>_id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>nom</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ufr</v>
-      </c>
-      <c r="D1" t="str">
-        <v>prenoms</v>
-      </c>
-      <c r="E1" t="str">
-        <v>tel</v>
-      </c>
-      <c r="F1" t="str">
-        <v>dateNaissance</v>
-      </c>
-      <c r="G1" t="str">
-        <v>email</v>
-      </c>
-      <c r="H1" t="str">
-        <v>whatshapp</v>
-      </c>
-      <c r="I1" t="str">
-        <v>photo</v>
-      </c>
-      <c r="J1" t="str">
-        <v>formation</v>
-      </c>
-      <c r="K1" t="str">
-        <v>numero</v>
-      </c>
-      <c r="L1" t="str">
-        <v>diplomePiece</v>
-      </c>
-      <c r="M1" t="str">
-        <v>statut</v>
-      </c>
-      <c r="N1" t="str">
-        <v>anneeUniversitaire</v>
-      </c>
-      <c r="O1" t="str">
-        <v>anneeExclu</v>
-      </c>
-      <c r="P1" t="str">
-        <v>lieuNaissance</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>nationnalite</v>
-      </c>
-      <c r="R1" t="str">
-        <v>numeroCarte</v>
-      </c>
-      <c r="S1" t="str">
-        <v>numeroTable</v>
-      </c>
-      <c r="T1" t="str">
-        <v>parcours</v>
-      </c>
-      <c r="U1" t="str">
-        <v>profession</v>
-      </c>
-      <c r="V1" t="str">
-        <v>serie</v>
-      </c>
-      <c r="W1" t="str">
-        <v>ueArattraper</v>
-      </c>
-      <c r="X1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>updatedAt</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>__v</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>analyserPar</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>filiere</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>niveau</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>675182d542abb45be6ac204d</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Akou</v>
-      </c>
-      <c r="C2" t="str">
-        <v>UFR Sciences Fondamentales et Appliquées</v>
-      </c>
-      <c r="D2" t="str">
-        <v>jean paul</v>
-      </c>
-      <c r="E2" t="str">
-        <v>0500908420</v>
-      </c>
-      <c r="F2" t="str">
-        <v>1991-01-23</v>
-      </c>
-      <c r="G2" t="str">
-        <v>jeanakoupaul@gmail.com</v>
-      </c>
-      <c r="H2" t="str">
-        <v>0500908420</v>
-      </c>
-      <c r="I2" t="str">
-        <v>https://res.cloudinary.com/cfcunadoc/image/upload/v1733394549/sttmdljh3linlhzrep8o.jpg</v>
-      </c>
-      <c r="J2" t="str">
-        <v>initiale</v>
-      </c>
-      <c r="K2" t="str">
-        <v>2425FISFA64</v>
-      </c>
-      <c r="L2" t="str">
-        <v>https://res.cloudinary.com/cfcunadoc/image/upload/v1733395093/xil8oht4duvnxsshvda4.pdf</v>
-      </c>
-      <c r="M2" t="str">
-        <v>accepte</v>
-      </c>
-      <c r="N2" t="str">
-        <v>2024-2025</v>
-      </c>
-      <c r="O2" t="str">
-        <v>2013</v>
-      </c>
-      <c r="P2" t="str">
-        <v>yopougon</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>ivoirienne</v>
-      </c>
-      <c r="R2" t="str">
-        <v>ci02203115</v>
-      </c>
-      <c r="S2" t="str">
-        <v>1205485124</v>
-      </c>
-      <c r="T2" t="str">
-        <v>Licence en Mathématiques-Informatique</v>
-      </c>
-      <c r="U2" t="str">
-        <v>ivoirienne</v>
-      </c>
-      <c r="V2" t="str">
-        <v>C</v>
-      </c>
-      <c r="X2" t="str">
-        <v>2024-12-05T10:39:18.013Z</v>
-      </c>
-      <c r="Y2" t="str">
-        <v>2024-12-05T11:08:34.710Z</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="str">
-        <v>67517b7342abb45be6ac203d</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>67517f3342abb45be6ac2047</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Akou</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Jean paul</v>
-      </c>
-      <c r="E3" t="str">
-        <v>0500908420</v>
-      </c>
-      <c r="F3" t="str">
-        <v>1991-01-23</v>
-      </c>
-      <c r="G3" t="str">
-        <v>jeanakoupaul@gmail.com</v>
-      </c>
-      <c r="H3" t="str">
-        <v>0500908420</v>
-      </c>
-      <c r="I3" t="str">
-        <v>https://res.cloudinary.com/cfcunadoc/image/upload/v1733394054/p05gckvjmmdzkxrqj8h8.jpg</v>
-      </c>
-      <c r="J3" t="str">
-        <v>professionnelle</v>
-      </c>
-      <c r="K3" t="str">
-        <v>2425FPSID2594</v>
-      </c>
-      <c r="L3" t="str">
-        <v>https://res.cloudinary.com/cfcunadoc/image/upload/v1733394191/nkb7nfbgdiurxxdfrgqr.pdf</v>
-      </c>
-      <c r="M3" t="str">
-        <v>encours</v>
-      </c>
-      <c r="N3" t="str">
-        <v>2024-2025</v>
-      </c>
-      <c r="P3" t="str">
-        <v>yopougon</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>ivoirienne</v>
-      </c>
-      <c r="U3" t="str">
-        <v>ivoirienne</v>
-      </c>
-      <c r="V3" t="str">
-        <v>C</v>
-      </c>
-      <c r="X3" t="str">
-        <v>2024-12-05T10:23:48.604Z</v>
-      </c>
-      <c r="Y3" t="str">
-        <v>2024-12-05T10:23:48.604Z</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="str">
-        <v>Statistique et Informatique Décisionnelle (SID)</v>
-      </c>
-      <c r="AC3" t="str">
-        <v>Preinscription en Licence 2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>67517a8f42abb45be6ac203a</v>
-      </c>
-      <c r="B4" t="str">
-        <v>AKOU</v>
-      </c>
-      <c r="D4" t="str">
-        <v>JEAN PAUL</v>
-      </c>
-      <c r="E4" t="str">
-        <v>0500908420</v>
-      </c>
-      <c r="F4" t="str">
-        <v>1991-01-20</v>
-      </c>
-      <c r="G4" t="str">
-        <v>jeanakoupaul@gmail.om</v>
-      </c>
-      <c r="H4" t="str">
-        <v>0500908420</v>
-      </c>
-      <c r="I4" t="str">
-        <v>https://res.cloudinary.com/cfcunadoc/image/upload/v1733392800/rittweo3fmrbp5hamiby.jpg</v>
-      </c>
-      <c r="J4" t="str">
-        <v>professionnelle</v>
-      </c>
-      <c r="K4" t="str">
-        <v>2425FPSID6180</v>
-      </c>
-      <c r="L4" t="str">
-        <v>https://res.cloudinary.com/cfcunadoc/image/upload/v1733393029/e9x1w4i4fwcm9michvpe.pdf</v>
-      </c>
-      <c r="M4" t="str">
-        <v>encours</v>
-      </c>
-      <c r="N4" t="str">
-        <v>2024-2025</v>
-      </c>
-      <c r="P4" t="str">
-        <v>yopougon</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>Ivoirienne</v>
-      </c>
-      <c r="U4" t="str">
-        <v>Etudiant</v>
-      </c>
-      <c r="X4" t="str">
-        <v>2024-12-05T10:04:01.823Z</v>
-      </c>
-      <c r="Y4" t="str">
-        <v>2024-12-05T10:04:01.823Z</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="str">
-        <v>Statistique et Informatique Décisionnelle (SID)</v>
-      </c>
-      <c r="AC4" t="str">
-        <v>Preinscription en Licence 3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>